--- a/public/files/import/items.xlsx
+++ b/public/files/import/items.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13050"/>
+    <workbookView windowWidth="19200" windowHeight="7110"/>
   </bookViews>
   <sheets>
     <sheet name="items" sheetId="1" r:id="rId1"/>
@@ -14,12 +14,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>name</t>
-  </si>
-  <si>
-    <t>sku</t>
   </si>
   <si>
     <t>description</t>
@@ -31,13 +28,10 @@
     <t>purchase_price</t>
   </si>
   <si>
-    <t>quantity</t>
+    <t>category_name</t>
   </si>
   <si>
-    <t>category_id</t>
-  </si>
-  <si>
-    <t>tax_id</t>
+    <t>tax_rate</t>
   </si>
   <si>
     <t>enabled</t>
@@ -46,7 +40,7 @@
     <t>Test Item</t>
   </si>
   <si>
-    <t>test-item</t>
+    <t>General</t>
   </si>
 </sst>
 </file>
@@ -54,10 +48,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -68,38 +62,30 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -113,38 +99,22 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -154,29 +124,6 @@
       <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -188,6 +135,43 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -196,6 +180,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -204,15 +204,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -227,13 +221,121 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -245,7 +347,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -257,157 +395,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -425,17 +419,6 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -456,17 +439,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -487,6 +466,39 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -500,79 +512,61 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -581,88 +575,88 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1015,27 +1009,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
-  <dimension ref="A1:I2"/>
+  <sheetPr/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelRow="1" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="3" width="14" customWidth="1"/>
-    <col min="4" max="4" width="12.8571428571429" customWidth="1"/>
-    <col min="5" max="5" width="17.5714285714286" customWidth="1"/>
-    <col min="6" max="6" width="10.5714285714286" customWidth="1"/>
-    <col min="7" max="7" width="14" customWidth="1"/>
-    <col min="8" max="8" width="8.14285714285714" customWidth="1"/>
-    <col min="9" max="9" width="9.28571428571429" customWidth="1"/>
+    <col min="1" max="1" width="11.7090909090909" customWidth="1"/>
+    <col min="2" max="2" width="14" customWidth="1"/>
+    <col min="3" max="3" width="12.8545454545455" customWidth="1"/>
+    <col min="4" max="4" width="17.5636363636364" customWidth="1"/>
+    <col min="5" max="5" width="14.9090909090909" customWidth="1"/>
+    <col min="6" max="6" width="8.45454545454546" customWidth="1"/>
+    <col min="7" max="7" width="9.28181818181818" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1057,44 +1049,28 @@
       <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="C2">
+        <v>10</v>
+      </c>
+      <c r="D2">
+        <v>5</v>
+      </c>
+      <c r="E2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:9">
-      <c r="A2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2"/>
-      <c r="D2">
-        <v>10</v>
-      </c>
-      <c r="E2">
-        <v>5</v>
-      </c>
-      <c r="F2">
-        <v>100</v>
-      </c>
       <c r="G2">
-        <v>5</v>
-      </c>
-      <c r="H2">
-        <v>2</v>
-      </c>
-      <c r="I2">
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertRows="0" insertColumns="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
-  <pageMargins left="0" right="0" top="0" bottom="0" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="1" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
 </file>